--- a/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsCT.xlsx
+++ b/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsCT.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>occupation</t>
   </si>
@@ -85,6 +85,9 @@
     <t>leather dresser</t>
   </si>
   <si>
+    <t>mariner</t>
+  </si>
+  <si>
     <t>merchant</t>
   </si>
   <si>
@@ -100,10 +103,16 @@
     <t>post rider</t>
   </si>
   <si>
+    <t>printer</t>
+  </si>
+  <si>
     <t>proprietors</t>
   </si>
   <si>
     <t>sadler</t>
+  </si>
+  <si>
+    <t>school committee</t>
   </si>
   <si>
     <t>school master</t>
@@ -500,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,7 +619,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>1935.06</v>
+        <v>863.41</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -753,7 +762,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>63765.00000000001</v>
+        <v>3831.05</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -764,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>18.99</v>
+        <v>63765.00000000001</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -775,7 +784,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>211.38</v>
+        <v>18.99</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -786,7 +795,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>1303.46</v>
+        <v>211.38</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -797,7 +806,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>676.91</v>
+        <v>1303.46</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -808,7 +817,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>276.9</v>
+        <v>676.91</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -819,7 +828,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>3524.74</v>
+        <v>204.78</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -830,7 +839,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>2213.75</v>
+        <v>276.9</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -841,7 +850,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>512.45</v>
+        <v>3524.74</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -852,7 +861,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>533.33</v>
+        <v>1071.65</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -863,7 +872,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>1345.46</v>
+        <v>2213.75</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -874,7 +883,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>78.48</v>
+        <v>512.45</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -885,7 +894,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>5767.41</v>
+        <v>533.33</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -896,7 +905,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>713.0599999999999</v>
+        <v>1345.46</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -907,7 +916,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>209.81</v>
+        <v>78.48</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -918,7 +927,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>9454.129999999999</v>
+        <v>1731.58</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -929,7 +938,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>15387.15</v>
+        <v>713.0599999999999</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -940,7 +949,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>6488.11</v>
+        <v>209.81</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -951,7 +960,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>63.64</v>
+        <v>9454.129999999999</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -962,6 +971,39 @@
         <v>42</v>
       </c>
       <c r="C42">
+        <v>15387.15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>6488.11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>63.64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
         <v>64.54000000000001</v>
       </c>
     </row>

--- a/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsCT.xlsx
+++ b/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsCT.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>occupation</t>
   </si>
@@ -55,7 +55,7 @@
     <t>doctor</t>
   </si>
   <si>
-    <t>esquire</t>
+    <t>esq</t>
   </si>
   <si>
     <t>executor</t>
@@ -79,9 +79,6 @@
     <t>inn keeper</t>
   </si>
   <si>
-    <t>joiner</t>
-  </si>
-  <si>
     <t>leather dresser</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>molster</t>
   </si>
   <si>
-    <t>physician</t>
-  </si>
-  <si>
     <t>post rider</t>
   </si>
   <si>
@@ -149,9 +143,6 @@
   </si>
   <si>
     <t>wife</t>
-  </si>
-  <si>
-    <t>yeoman</t>
   </si>
 </sst>
 </file>
@@ -509,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,7 +577,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>175.34</v>
+        <v>228.67</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -641,7 +632,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>647.09</v>
+        <v>1950.55</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -674,7 +665,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>36715.82</v>
+        <v>36780.36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -740,7 +731,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>53.33</v>
+        <v>666.67</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -751,7 +742,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>666.67</v>
+        <v>3831.05</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -762,7 +753,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>3831.05</v>
+        <v>63765.00000000001</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -773,7 +764,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>63765.00000000001</v>
+        <v>18.99</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -784,7 +775,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>18.99</v>
+        <v>211.38</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -795,7 +786,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>211.38</v>
+        <v>676.91</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -806,7 +797,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>1303.46</v>
+        <v>204.78</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -817,7 +808,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>676.91</v>
+        <v>276.9</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -828,7 +819,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>204.78</v>
+        <v>3524.74</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -839,7 +830,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>276.9</v>
+        <v>1071.65</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -850,7 +841,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>3524.74</v>
+        <v>2213.75</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -861,7 +852,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>1071.65</v>
+        <v>512.45</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -872,7 +863,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>2213.75</v>
+        <v>533.33</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -883,7 +874,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>512.45</v>
+        <v>1345.46</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -894,7 +885,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>533.33</v>
+        <v>78.48</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -905,7 +896,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>1345.46</v>
+        <v>1731.58</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -916,7 +907,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>78.48</v>
+        <v>713.0599999999999</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -927,7 +918,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>1731.58</v>
+        <v>209.81</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -938,7 +929,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>713.0599999999999</v>
+        <v>9454.129999999999</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -949,7 +940,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>209.81</v>
+        <v>15387.15</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -960,7 +951,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>9454.129999999999</v>
+        <v>6488.11</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -971,40 +962,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>15387.15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43">
-        <v>6488.11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44">
         <v>63.64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45">
-        <v>64.54000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsCT.xlsx
+++ b/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsCT.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>occupation</t>
   </si>
   <si>
     <t>6p_total</t>
+  </si>
+  <si>
+    <t># of people</t>
+  </si>
+  <si>
+    <t>average debt per person</t>
   </si>
   <si>
     <t>adminastrator</t>
@@ -500,468 +506,720 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>4081.06</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>408.1060000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>7.72</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>11114.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>555.7300000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>724.7099999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>241.57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>208.55</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>69.51666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>228.67</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>114.335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>85.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>42.65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>53.33</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>53.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>863.41</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>287.8033333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>124.76</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>124.76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>1950.55</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>487.6375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>13020.09</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>1001.545384615384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>4558.25</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>651.1785714285714</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>36780.36</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <v>170</v>
+      </c>
+      <c r="E15">
+        <v>216.3550588235294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>16624.32</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>32</v>
+      </c>
+      <c r="E16">
+        <v>519.51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>6.82</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>1245.62</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>415.2066666666666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>242.99</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>242.99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>201.53</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>67.17666666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>666.67</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>666.67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>3831.05</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>13</v>
+      </c>
+      <c r="E22">
+        <v>294.6961538461538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>63765.00000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>63</v>
+      </c>
+      <c r="E23">
+        <v>1012.142857142857</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C24">
         <v>18.99</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>18.99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>211.38</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>211.38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>676.91</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>225.6366666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C27">
         <v>204.78</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>102.39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C28">
         <v>276.9</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>276.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C29">
         <v>3524.74</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>3524.74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C30">
         <v>1071.65</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>153.0928571428571</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C31">
         <v>2213.75</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1106.875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C32">
         <v>512.45</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>170.8166666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>533.33</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>533.33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C34">
         <v>1345.46</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>224.2433333333333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C35">
         <v>78.48</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>78.48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C36">
         <v>1731.58</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>288.5966666666666</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C37">
         <v>713.0599999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>713.0599999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C38">
         <v>209.81</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>209.81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C39">
         <v>9454.129999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39">
+        <v>46</v>
+      </c>
+      <c r="E39">
+        <v>205.5245652173913</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C40">
         <v>15387.15</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40">
+        <v>14</v>
+      </c>
+      <c r="E40">
+        <v>1099.082142857143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C41">
         <v>6488.11</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41">
+        <v>28</v>
+      </c>
+      <c r="E41">
+        <v>231.7182142857143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C42">
+        <v>63.64</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
         <v>63.64</v>
       </c>
     </row>

--- a/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsCT.xlsx
+++ b/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsCT.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>occupation</t>
   </si>
@@ -25,130 +25,133 @@
     <t># of people</t>
   </si>
   <si>
+    <t>% of total people</t>
+  </si>
+  <si>
     <t>average debt per person</t>
   </si>
   <si>
+    <t>merchant</t>
+  </si>
+  <si>
+    <t>farmer</t>
+  </si>
+  <si>
+    <t>gentleman</t>
+  </si>
+  <si>
+    <t>treasurer</t>
+  </si>
+  <si>
+    <t>esq</t>
+  </si>
+  <si>
+    <t>attorney</t>
+  </si>
+  <si>
+    <t>trader</t>
+  </si>
+  <si>
+    <t>widow</t>
+  </si>
+  <si>
+    <t>executor</t>
+  </si>
+  <si>
     <t>adminastrator</t>
   </si>
   <si>
+    <t>mariner</t>
+  </si>
+  <si>
+    <t>sadler</t>
+  </si>
+  <si>
+    <t>school master</t>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>spinster</t>
+  </si>
+  <si>
+    <t>shoemaker</t>
+  </si>
+  <si>
+    <t>guardian</t>
+  </si>
+  <si>
+    <t>school committee</t>
+  </si>
+  <si>
+    <t>committee</t>
+  </si>
+  <si>
+    <t>blacksmith</t>
+  </si>
+  <si>
+    <t>tanner</t>
+  </si>
+  <si>
+    <t>post rider</t>
+  </si>
+  <si>
+    <t>leather dresser</t>
+  </si>
+  <si>
+    <t>shipwright</t>
+  </si>
+  <si>
+    <t>sherriffs</t>
+  </si>
+  <si>
+    <t>proprietors</t>
+  </si>
+  <si>
+    <t>hatter</t>
+  </si>
+  <si>
+    <t>carpenter</t>
+  </si>
+  <si>
+    <t>molster</t>
+  </si>
+  <si>
+    <t>taylor</t>
+  </si>
+  <si>
+    <t>broker</t>
+  </si>
+  <si>
+    <t>printer</t>
+  </si>
+  <si>
+    <t>inn keeper</t>
+  </si>
+  <si>
+    <t>cooper</t>
+  </si>
+  <si>
+    <t>cashier</t>
+  </si>
+  <si>
+    <t>soldier</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>clothier</t>
+  </si>
+  <si>
+    <t>miller</t>
+  </si>
+  <si>
     <t>apothecary</t>
   </si>
   <si>
-    <t>attorney</t>
-  </si>
-  <si>
-    <t>blacksmith</t>
-  </si>
-  <si>
-    <t>broker</t>
-  </si>
-  <si>
-    <t>carpenter</t>
-  </si>
-  <si>
-    <t>cashier</t>
-  </si>
-  <si>
-    <t>clothier</t>
-  </si>
-  <si>
-    <t>committee</t>
-  </si>
-  <si>
-    <t>cooper</t>
-  </si>
-  <si>
-    <t>doctor</t>
-  </si>
-  <si>
-    <t>esq</t>
-  </si>
-  <si>
-    <t>executor</t>
-  </si>
-  <si>
-    <t>farmer</t>
-  </si>
-  <si>
-    <t>gentleman</t>
-  </si>
-  <si>
     <t>goldsmith</t>
-  </si>
-  <si>
-    <t>guardian</t>
-  </si>
-  <si>
-    <t>hatter</t>
-  </si>
-  <si>
-    <t>inn keeper</t>
-  </si>
-  <si>
-    <t>leather dresser</t>
-  </si>
-  <si>
-    <t>mariner</t>
-  </si>
-  <si>
-    <t>merchant</t>
-  </si>
-  <si>
-    <t>miller</t>
-  </si>
-  <si>
-    <t>molster</t>
-  </si>
-  <si>
-    <t>post rider</t>
-  </si>
-  <si>
-    <t>printer</t>
-  </si>
-  <si>
-    <t>proprietors</t>
-  </si>
-  <si>
-    <t>sadler</t>
-  </si>
-  <si>
-    <t>school committee</t>
-  </si>
-  <si>
-    <t>school master</t>
-  </si>
-  <si>
-    <t>sherriffs</t>
-  </si>
-  <si>
-    <t>shipwright</t>
-  </si>
-  <si>
-    <t>shoemaker</t>
-  </si>
-  <si>
-    <t>soldier</t>
-  </si>
-  <si>
-    <t>spinster</t>
-  </si>
-  <si>
-    <t>tanner</t>
-  </si>
-  <si>
-    <t>taylor</t>
-  </si>
-  <si>
-    <t>trader</t>
-  </si>
-  <si>
-    <t>treasurer</t>
-  </si>
-  <si>
-    <t>widow</t>
-  </si>
-  <si>
-    <t>wife</t>
   </si>
 </sst>
 </file>
@@ -506,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,285 +528,336 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>4081.06</v>
+        <v>63765.00000000001</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E2">
-        <v>408.1060000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>13.04347826086956</v>
+      </c>
+      <c r="F2">
+        <v>1012.142857142857</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>7.72</v>
+        <v>36780.36</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="E3">
-        <v>7.72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>35.19668737060042</v>
+      </c>
+      <c r="F3">
+        <v>216.3550588235294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>11114.6</v>
+        <v>16624.32</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E4">
-        <v>555.7300000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>6.625258799171843</v>
+      </c>
+      <c r="F4">
+        <v>519.51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>724.7099999999999</v>
+        <v>15387.15</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>241.57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>2.898550724637681</v>
+      </c>
+      <c r="F5">
+        <v>1099.082142857143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>208.55</v>
+        <v>13020.09</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E6">
-        <v>69.51666666666667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>2.691511387163561</v>
+      </c>
+      <c r="F6">
+        <v>1001.545384615384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>228.67</v>
+        <v>11114.6</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>114.335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>4.140786749482402</v>
+      </c>
+      <c r="F7">
+        <v>555.7300000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>85.3</v>
+        <v>9454.129999999999</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="E8">
-        <v>42.65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>9.523809523809524</v>
+      </c>
+      <c r="F8">
+        <v>205.5245652173913</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>53.33</v>
+        <v>6488.11</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E9">
-        <v>53.33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>5.797101449275362</v>
+      </c>
+      <c r="F9">
+        <v>231.7182142857143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>863.41</v>
+        <v>4558.25</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>287.8033333333333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>1.449275362318841</v>
+      </c>
+      <c r="F10">
+        <v>651.1785714285714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>124.76</v>
+        <v>4081.06</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>124.76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>2.070393374741201</v>
+      </c>
+      <c r="F11">
+        <v>408.1060000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>1950.55</v>
+        <v>3831.05</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E12">
-        <v>487.6375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>2.691511387163561</v>
+      </c>
+      <c r="F12">
+        <v>294.6961538461538</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>13020.09</v>
+        <v>3524.74</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>1001.545384615384</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.2070393374741201</v>
+      </c>
+      <c r="F13">
+        <v>3524.74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>4558.25</v>
+        <v>2213.75</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>651.1785714285714</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.4140786749482402</v>
+      </c>
+      <c r="F14">
+        <v>1106.875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15">
-        <v>36780.36</v>
+        <v>1950.55</v>
       </c>
       <c r="D15">
-        <v>170</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>216.3550588235294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.8281573498964804</v>
+      </c>
+      <c r="F15">
+        <v>487.6375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>16624.32</v>
+        <v>1731.58</v>
       </c>
       <c r="D16">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>519.51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>1.24223602484472</v>
+      </c>
+      <c r="F16">
+        <v>288.5966666666666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>6.82</v>
+        <v>1345.46</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>6.82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>1.24223602484472</v>
+      </c>
+      <c r="F17">
+        <v>224.2433333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>1245.62</v>
@@ -812,415 +866,490 @@
         <v>3</v>
       </c>
       <c r="E18">
+        <v>0.6211180124223602</v>
+      </c>
+      <c r="F18">
         <v>415.2066666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19">
-        <v>242.99</v>
+        <v>1071.65</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>242.99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>1.449275362318841</v>
+      </c>
+      <c r="F19">
+        <v>153.0928571428571</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20">
-        <v>201.53</v>
+        <v>863.41</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20">
-        <v>67.17666666666666</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.6211180124223602</v>
+      </c>
+      <c r="F20">
+        <v>287.8033333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21">
-        <v>666.67</v>
+        <v>724.7099999999999</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>666.67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.6211180124223602</v>
+      </c>
+      <c r="F21">
+        <v>241.57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22">
-        <v>3831.05</v>
+        <v>713.0599999999999</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>294.6961538461538</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.2070393374741201</v>
+      </c>
+      <c r="F22">
+        <v>713.0599999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23">
-        <v>63765.00000000001</v>
+        <v>676.91</v>
       </c>
       <c r="D23">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>1012.142857142857</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.6211180124223602</v>
+      </c>
+      <c r="F23">
+        <v>225.6366666666667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24">
-        <v>18.99</v>
+        <v>666.67</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24">
-        <v>18.99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.2070393374741201</v>
+      </c>
+      <c r="F24">
+        <v>666.67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25">
-        <v>211.38</v>
+        <v>533.33</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>211.38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.2070393374741201</v>
+      </c>
+      <c r="F25">
+        <v>533.33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26">
-        <v>676.91</v>
+        <v>512.45</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
       <c r="E26">
-        <v>225.6366666666667</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.6211180124223602</v>
+      </c>
+      <c r="F26">
+        <v>170.8166666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27">
-        <v>204.78</v>
+        <v>276.9</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>102.39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>0.2070393374741201</v>
+      </c>
+      <c r="F27">
+        <v>276.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28">
-        <v>276.9</v>
+        <v>242.99</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>276.9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.2070393374741201</v>
+      </c>
+      <c r="F28">
+        <v>242.99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29">
-        <v>3524.74</v>
+        <v>228.67</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>3524.74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.4140786749482402</v>
+      </c>
+      <c r="F29">
+        <v>114.335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30">
-        <v>1071.65</v>
+        <v>211.38</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>153.0928571428571</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.2070393374741201</v>
+      </c>
+      <c r="F30">
+        <v>211.38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31">
-        <v>2213.75</v>
+        <v>209.81</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>1106.875</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.2070393374741201</v>
+      </c>
+      <c r="F31">
+        <v>209.81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
-        <v>512.45</v>
+        <v>208.55</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
       <c r="E32">
-        <v>170.8166666666667</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.6211180124223602</v>
+      </c>
+      <c r="F32">
+        <v>69.51666666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33">
-        <v>533.33</v>
+        <v>204.78</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>533.33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.4140786749482402</v>
+      </c>
+      <c r="F33">
+        <v>102.39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34">
-        <v>1345.46</v>
+        <v>201.53</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>224.2433333333333</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.6211180124223602</v>
+      </c>
+      <c r="F34">
+        <v>67.17666666666666</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35">
-        <v>78.48</v>
+        <v>124.76</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>78.48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.2070393374741201</v>
+      </c>
+      <c r="F35">
+        <v>124.76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36">
-        <v>1731.58</v>
+        <v>85.3</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E36">
-        <v>288.5966666666666</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.4140786749482402</v>
+      </c>
+      <c r="F36">
+        <v>42.65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37">
-        <v>713.0599999999999</v>
+        <v>78.48</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37">
-        <v>713.0599999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>0.2070393374741201</v>
+      </c>
+      <c r="F37">
+        <v>78.48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38">
-        <v>209.81</v>
+        <v>63.64</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>209.81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.2070393374741201</v>
+      </c>
+      <c r="F38">
+        <v>63.64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39">
-        <v>9454.129999999999</v>
+        <v>53.33</v>
       </c>
       <c r="D39">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>205.5245652173913</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.2070393374741201</v>
+      </c>
+      <c r="F39">
+        <v>53.33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40">
-        <v>15387.15</v>
+        <v>18.99</v>
       </c>
       <c r="D40">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>1099.082142857143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.2070393374741201</v>
+      </c>
+      <c r="F40">
+        <v>18.99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C41">
-        <v>6488.11</v>
+        <v>7.72</v>
       </c>
       <c r="D41">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>231.7182142857143</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.2070393374741201</v>
+      </c>
+      <c r="F41">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42">
-        <v>63.64</v>
+        <v>6.82</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42">
-        <v>63.64</v>
+        <v>0.2070393374741201</v>
+      </c>
+      <c r="F42">
+        <v>6.82</v>
       </c>
     </row>
   </sheetData>
